--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-mura\Desktop\PHP課題関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runaj\Documents\2023\GitHub\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919EE5B-7D25-4BA2-AEAD-AC38F44DD38E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D93A7B-FBD9-43A4-BBDE-EF58A7E4AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
@@ -28,21 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>v1.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20xx/xx/xx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -181,28 +173,84 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>○○システム</t>
+    <t>データベース設計書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江藤るな</t>
+    <rPh sb="0" eb="2">
+      <t>エトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nekocafe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>猫カフェ</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>猫カフェ店舗一覧システム</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>テンポイチラン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>○○システム　データモデル設計書</t>
-    <rPh sb="13" eb="15">
+    <t>猫カフェ店舗一覧システム　データモデル設計書</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>テンポイチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>セッケイ</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="21" eb="22">
       <t>ショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>○○システムにおけるデータモデルを示す</t>
-    <rPh sb="17" eb="18">
+    <t>猫カフェ店舗一覧システムにおけるデータモデルを示す</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>テンポイチラン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
       <t>シメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベース設計書</t>
+    <t>猫カフェ店舗情報を管理する</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -485,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +597,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,6 +647,247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>570824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1768930</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EAC266-4A8B-F91B-B284-A76E3B5E3CD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="922835" y="6418434"/>
+          <a:ext cx="2757997" cy="2833635"/>
+          <a:chOff x="922835" y="6418434"/>
+          <a:chExt cx="2757997" cy="2833635"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A3237F-F0F2-7FC0-86B1-76D375AD4F98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="923511" y="6418627"/>
+            <a:ext cx="2757321" cy="2833442"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>#ID(PK)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>店舗名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>住所</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Web</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>サイト</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カテゴリー</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B8867E-E3F1-3DB2-E5F8-6E4586E4C01A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="922835" y="6418434"/>
+            <a:ext cx="2755583" cy="532055"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>猫カフェ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,70 +1182,70 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="92" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="15" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="F3" s="23">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="25"/>
       <c r="C4" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
@@ -963,35 +1255,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="25"/>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -999,9 +1291,9 @@
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1009,91 +1301,101 @@
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1101,207 +1403,207 @@
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1330,6 +1632,7 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1500,7 +1803,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484C079A-BA70-4A41-8707-95A79F249F61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{484C079A-BA70-4A41-8707-95A79F249F61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f87b90b8-3799-4f6b-b8f5-f4011f5d303d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1524,6 +1841,7 @@
     <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f87b90b8-3799-4f6b-b8f5-f4011f5d303d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>